--- a/22-03-2022/non-feed.xlsx
+++ b/22-03-2022/non-feed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Office\Creative\USCS\USCS_2851\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Office\Creative\USCS\USCS_2851\22-03-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73E74CA-ADFE-4BCA-9CC4-DA3C76D99683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC42DC4-3762-46DE-989C-066C2D693D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="729">
   <si>
     <t>{"version": "3.0"}</t>
   </si>
@@ -485,9 +485,6 @@
     <t>19,#1d1d1b,0,196</t>
   </si>
   <si>
-    <t>26,#1d1d1b,0,420</t>
-  </si>
-  <si>
     <t>18,#1d1d1b,0,0</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
     <t>cunard_master_300x600_RL/index.html</t>
   </si>
   <si>
-    <t>Explore Alaska’s&lt;br&gt; frontier</t>
-  </si>
-  <si>
     <t>#fff,transparent</t>
   </si>
   <si>
@@ -836,18 +830,12 @@
     <t>15,#1d1d1b,0,216</t>
   </si>
   <si>
-    <t>21,#1d1d1b,0,382</t>
-  </si>
-  <si>
     <t>17,#1d1d1b,0,198</t>
   </si>
   <si>
     <t>14,#1d1d1b,0,244</t>
   </si>
   <si>
-    <t>22,#1d1d1b,0,412</t>
-  </si>
-  <si>
     <t>14,#da291c,0,244</t>
   </si>
   <si>
@@ -2042,9 +2030,6 @@
     <t>16,#1d1d1b,0,184</t>
   </si>
   <si>
-    <t>22,#1d1d1b,6,412</t>
-  </si>
-  <si>
     <t>19,#000,52,54</t>
   </si>
   <si>
@@ -2069,21 +2054,12 @@
     <t>Enjoy up to&lt;br&gt;$1200 Onboard &lt;br/&gt; Credit per stateroom</t>
   </si>
   <si>
-    <t>Explore the sun-kissed coast of the Mediterranean</t>
-  </si>
-  <si>
-    <t>Explore the sun-kissed&lt;br&gt;coast of the Mediterranean</t>
-  </si>
-  <si>
     <t>25,#fff,154,36</t>
   </si>
   <si>
     <t>23,#fff,0,415</t>
   </si>
   <si>
-    <t>22,#fff,6,412</t>
-  </si>
-  <si>
     <t>7|#fff|195,239|195,239|195,239|195,239</t>
   </si>
   <si>
@@ -2102,9 +2078,6 @@
     <t>12,#fff,#FFF</t>
   </si>
   <si>
-    <t>19,#fff,4,382</t>
-  </si>
-  <si>
     <t>18,#fff,0,226</t>
   </si>
   <si>
@@ -2174,18 +2147,6 @@
     <t>14,#1d1d1b,311,18</t>
   </si>
   <si>
-    <t>19,#1d1d1b,5,395</t>
-  </si>
-  <si>
-    <t>22,#1d1d1b,0,404</t>
-  </si>
-  <si>
-    <t>Explore historic Canada&lt;br&gt;&amp; New England</t>
-  </si>
-  <si>
-    <t>19,#1d1d1b,208,38</t>
-  </si>
-  <si>
     <t>26,#fff,0,437</t>
   </si>
   <si>
@@ -2195,9 +2156,6 @@
     <t>19,#fff,0,216</t>
   </si>
   <si>
-    <t>20,#fff,0,409</t>
-  </si>
-  <si>
     <t>20,#fff,0,219</t>
   </si>
   <si>
@@ -2217,16 +2175,62 @@
   </si>
   <si>
     <t>19,#1d1d1b,0,230</t>
+  </si>
+  <si>
+    <t>22,#1d1d1b,0,434</t>
+  </si>
+  <si>
+    <t>19,#1d1d1b,4,414</t>
+  </si>
+  <si>
+    <t>Explore historic Canada &amp;&lt;br&gt;New England</t>
+  </si>
+  <si>
+    <t>22,#1d1d1b,201,26</t>
+  </si>
+  <si>
+    <t>20,#1d1d1b,0,416</t>
+  </si>
+  <si>
+    <t>19,#1d1d1b,5,400</t>
+  </si>
+  <si>
+    <t>18,#1d1d1b,5,442</t>
+  </si>
+  <si>
+    <t>Explore the sun-kissed coast&lt;br&gt;of the Mediterranean</t>
+  </si>
+  <si>
+    <t>18,#fff,0,422</t>
+  </si>
+  <si>
+    <t>15,#fff,4,415</t>
+  </si>
+  <si>
+    <t>Explore the sun-kissed coast of&lt;br&gt;the Mediterranean</t>
+  </si>
+  <si>
+    <t>18,#fff,6,422</t>
+  </si>
+  <si>
+    <t>18,#1d1d1b,6,422</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2262,8 +2266,15 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2294,8 +2305,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2303,44 +2325,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="36">
@@ -2994,11 +3034,11 @@
   <dimension ref="A1:BI37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AZ12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
       <selection pane="topRight" activeCell="C9" sqref="C9"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="BC14" sqref="BC14"/>
+      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,15 +3049,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3241,7 +3281,7 @@
         <v>69</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>70</v>
@@ -3253,7 +3293,7 @@
         <v>70</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>71</v>
@@ -3265,19 +3305,19 @@
         <v>135</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>89</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>90</v>
@@ -3301,7 +3341,7 @@
         <v>91</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>70</v>
@@ -3324,20 +3364,20 @@
       <c r="AF12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AG12" s="2" t="s">
-        <v>603</v>
+      <c r="AG12" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="AH12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AJ12" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="AL12" s="2" t="s">
         <v>80</v>
@@ -3346,16 +3386,16 @@
         <v>93</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AP12" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AQ12" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AR12" s="2" t="s">
         <v>82</v>
@@ -3379,7 +3419,7 @@
         <v>116</v>
       </c>
       <c r="BD12" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="BE12" s="2" t="s">
         <v>98</v>
@@ -3402,7 +3442,7 @@
         <v>148</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>70</v>
@@ -3414,7 +3454,7 @@
         <v>70</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>71</v>
@@ -3426,55 +3466,55 @@
         <v>135</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>89</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="P13" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="S13" s="2" t="s">
         <v>70</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>91</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>70</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y13" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB13" s="2" t="s">
         <v>149</v>
@@ -3485,20 +3525,20 @@
       <c r="AF13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AG13" s="2" t="s">
-        <v>603</v>
+      <c r="AG13" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="AH13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AJ13" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL13" s="2" t="s">
         <v>80</v>
@@ -3507,16 +3547,16 @@
         <v>93</v>
       </c>
       <c r="AN13" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="AO13" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="AO13" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="AP13" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AQ13" s="4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AR13" s="2" t="s">
         <v>82</v>
@@ -3534,19 +3574,19 @@
         <v>85</v>
       </c>
       <c r="BB13" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BC13" s="6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="BD13" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="BE13" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BF13" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BG13" s="2" t="s">
         <v>86</v>
@@ -3555,15 +3595,15 @@
         <v>86</v>
       </c>
       <c r="BI13" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:61" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>70</v>
@@ -3575,7 +3615,7 @@
         <v>70</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>71</v>
@@ -3587,79 +3627,79 @@
         <v>135</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>90</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>70</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>70</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>91</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>70</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y14" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF14" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AD14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>603</v>
+      <c r="AG14" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="AH14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AJ14" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL14" s="2" t="s">
         <v>80</v>
@@ -3668,16 +3708,16 @@
         <v>93</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AP14" s="2" t="s">
         <v>94</v>
       </c>
       <c r="AQ14" s="4" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="AR14" s="2" t="s">
         <v>82</v>
@@ -3695,19 +3735,19 @@
         <v>85</v>
       </c>
       <c r="BB14" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="BC14" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="BC14" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD14" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="BE14" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="BD14" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="BE14" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="BF14" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BG14" s="2" t="s">
         <v>86</v>
@@ -3716,15 +3756,15 @@
         <v>86</v>
       </c>
       <c r="BI14" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:61" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>70</v>
@@ -3736,7 +3776,7 @@
         <v>70</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>71</v>
@@ -3745,82 +3785,82 @@
         <v>72</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>89</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>90</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>269</v>
+        <v>717</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>70</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>70</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>91</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>70</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Y15" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AB15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF15" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="AD15" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG15" s="2" t="s">
-        <v>603</v>
+      <c r="AG15" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="AH15" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AJ15" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL15" s="2" t="s">
         <v>80</v>
@@ -3829,10 +3869,10 @@
         <v>93</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AP15" s="2" t="s">
         <v>94</v>
@@ -3856,19 +3896,19 @@
         <v>85</v>
       </c>
       <c r="BB15" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="BC15" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="BD15" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="BE15" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="BF15" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="BG15" s="2" t="s">
         <v>86</v>
@@ -3877,2711 +3917,2711 @@
         <v>86</v>
       </c>
       <c r="BI15" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:61" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG17" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI17" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK17" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="AL17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN17" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="AO17" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="AP17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ17" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="AR17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="8"/>
+      <c r="AY17" s="8"/>
+      <c r="AZ17" s="8"/>
+      <c r="BA17" s="8"/>
+      <c r="BB17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF17" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="BG17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI17" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG18" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI18" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN18" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="AO18" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="AP18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ18" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="AR18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS18" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW18" s="8"/>
+      <c r="AX18" s="8"/>
+      <c r="AY18" s="8"/>
+      <c r="AZ18" s="8"/>
+      <c r="BA18" s="8"/>
+      <c r="BB18" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC18" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="BD18" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE18" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF18" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="BG18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI18" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG19" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI19" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="AJ19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN19" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="AO19" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="AP19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ19" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="AR19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS19" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="AT19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV19" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="BC19" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD19" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="BE19" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="BF19" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="BG19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI19" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I20" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="X20" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG20" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI20" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="AJ20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK20" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN20" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="AO20" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="AP20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW20" s="8"/>
+      <c r="AX20" s="8"/>
+      <c r="AY20" s="8"/>
+      <c r="AZ20" s="8"/>
+      <c r="BA20" s="8"/>
+      <c r="BB20" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="BC20" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD20" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="BE20" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="BF20" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="BG20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI20" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J22" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="W22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="X22" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z22" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG22" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH22" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI22" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="AJ22" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK22" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="AL22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM22" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN22" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="AO22" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="AP22" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ22" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="AR22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS22" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU22" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22" s="14"/>
+      <c r="BA22" s="14"/>
+      <c r="BB22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC22" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD22" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF22" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI22" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="X23" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z23" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG23" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH23" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI23" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK23" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL23" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM23" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN23" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="AO23" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="AP23" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ23" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="AR23" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS23" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT23" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU23" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23" s="14"/>
+      <c r="BA23" s="14"/>
+      <c r="BB23" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD23" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="BE23" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF23" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI23" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="U24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="W24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="X24" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z24" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG24" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI24" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="AJ24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK24" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM24" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN24" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO24" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="AP24" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ24" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="AR24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS24" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="AT24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU24" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV24" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24" s="14"/>
+      <c r="BA24" s="14"/>
+      <c r="BB24" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC24" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD24" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="BE24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="BF24" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="BG24" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH24" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI24" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="N25" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="R17" s="9" t="s">
+      <c r="O25" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="U25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="X25" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z25" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG25" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI25" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK25" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN25" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="AO25" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="AP25" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ25" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS25" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
+      <c r="BB25" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD25" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="BE25" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="BF25" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="BG25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI25" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R27" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="S17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T17" s="9" t="s">
+      <c r="S27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="T27" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="U17" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="V17" s="9" t="s">
+      <c r="U27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="V27" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="W27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="X27" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z27" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG27" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH27" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI27" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="AJ27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK27" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="AL27" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM27" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN27" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="AO27" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="AP27" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ27" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="AR27" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS27" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT27" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU27" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV27" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW27" s="18"/>
+      <c r="AX27" s="18"/>
+      <c r="AY27" s="18"/>
+      <c r="AZ27" s="18"/>
+      <c r="BA27" s="18"/>
+      <c r="BB27" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC27" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD27" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE27" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF27" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="BG27" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH27" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI27" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>697</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="P28" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="W17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="X17" s="9" t="s">
+      <c r="Q28" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R28" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="S28" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="T28" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="U28" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="V28" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="W28" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="X28" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y28" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z28" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG28" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH28" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI28" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="AJ28" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK28" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL28" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM28" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN28" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="AO28" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="AP28" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ28" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="AR28" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS28" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT28" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU28" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV28" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW28" s="18"/>
+      <c r="AX28" s="18"/>
+      <c r="AY28" s="18"/>
+      <c r="AZ28" s="18"/>
+      <c r="BA28" s="18"/>
+      <c r="BB28" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC28" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD28" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="BE28" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF28" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="BG28" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH28" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI28" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R29" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="S29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="T29" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="U29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="V29" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="W29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="X29" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z29" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG29" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH29" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI29" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="AJ29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK29" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL29" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM29" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN29" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="AO29" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="AP29" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ29" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="AR29" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS29" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT29" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU29" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV29" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW29" s="18"/>
+      <c r="AX29" s="18"/>
+      <c r="AY29" s="18"/>
+      <c r="AZ29" s="18"/>
+      <c r="BA29" s="18"/>
+      <c r="BB29" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC29" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD29" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="BE29" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="BF29" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="BG29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI29" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R30" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="S30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="T30" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="U30" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="V30" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="W30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="X30" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z30" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG30" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI30" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="AJ30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK30" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL30" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM30" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN30" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="AO30" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="AP30" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ30" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="AR30" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS30" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT30" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU30" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV30" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW30" s="18"/>
+      <c r="AX30" s="18"/>
+      <c r="AY30" s="18"/>
+      <c r="AZ30" s="18"/>
+      <c r="BA30" s="18"/>
+      <c r="BB30" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC30" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="BD30" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="BE30" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF30" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="BG30" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH30" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI30" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="N32" s="23" t="s">
+        <v>669</v>
+      </c>
+      <c r="O32" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="P32" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R32" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="Y17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z17" s="9" t="s">
+      <c r="S32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="T32" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="U32" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="V32" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="W32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="X32" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z32" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9" t="s">
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9" t="s">
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9" t="s">
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AG17" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH17" s="9" t="s">
+      <c r="AG32" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH32" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="AI17" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="AJ17" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK17" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="AL17" s="9" t="s">
+      <c r="AI32" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="AJ32" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK32" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="AL32" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AM17" s="9" t="s">
+      <c r="AM32" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="AN17" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="AO17" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="AP17" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ17" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="AR17" s="9" t="s">
+      <c r="AN32" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="AO32" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="AP32" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ32" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="AR32" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AS17" s="11" t="s">
+      <c r="AS32" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="AT17" s="9" t="s">
+      <c r="AT32" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AU17" s="9" t="s">
+      <c r="AU32" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AV17" s="9" t="s">
+      <c r="AV32" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="9"/>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="9"/>
-      <c r="BA17" s="9"/>
-      <c r="BB17" s="9" t="s">
+      <c r="AW32" s="23"/>
+      <c r="AX32" s="23"/>
+      <c r="AY32" s="23"/>
+      <c r="AZ32" s="23"/>
+      <c r="BA32" s="23"/>
+      <c r="BB32" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="BC17" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="BD17" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE17" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="BF17" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="BG17" s="9" t="s">
+      <c r="BC32" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD32" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE32" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF32" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="BG32" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="BH17" s="9" t="s">
+      <c r="BH32" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="BI17" s="9" t="s">
+      <c r="BI32" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:61" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="33" spans="1:61" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="B33" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="G33" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H33" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I33" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="W18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="X18" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z18" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9" t="s">
+      <c r="J33" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="M33" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="P33" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q33" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R33" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="S33" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="T33" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="U33" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="V33" s="23" t="s">
+        <v>676</v>
+      </c>
+      <c r="W33" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="X33" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y33" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z33" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9" t="s">
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9" t="s">
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="AG18" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH18" s="9" t="s">
+      <c r="AG33" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH33" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="AI18" s="9" t="s">
+      <c r="AI33" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="AJ33" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK33" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL33" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM33" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN33" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="AO33" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="AP33" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ33" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="AR33" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS33" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT33" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU33" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV33" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW33" s="23"/>
+      <c r="AX33" s="23"/>
+      <c r="AY33" s="23"/>
+      <c r="AZ33" s="23"/>
+      <c r="BA33" s="23"/>
+      <c r="BB33" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC33" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD33" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="BE33" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF33" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="BG33" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH33" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI33" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:61" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="M34" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>685</v>
+      </c>
+      <c r="O34" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="P34" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q34" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R34" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="S34" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="T34" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="U34" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="V34" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="W34" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="X34" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y34" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z34" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC34" s="23"/>
+      <c r="AD34" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG34" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH34" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI34" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="AJ34" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK34" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL34" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM34" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN34" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="AO34" s="23" t="s">
         <v>618</v>
       </c>
-      <c r="AJ18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK18" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL18" s="9" t="s">
+      <c r="AP34" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ34" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="AR34" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS34" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="AT34" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU34" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV34" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW34" s="23"/>
+      <c r="AX34" s="23"/>
+      <c r="AY34" s="23"/>
+      <c r="AZ34" s="23"/>
+      <c r="BA34" s="23"/>
+      <c r="BB34" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC34" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD34" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE34" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF34" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="BG34" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH34" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI34" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:61" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>672</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>674</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>696</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R35" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="S35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="T35" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="U35" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="V35" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="W35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="X35" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z35" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG35" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AM18" s="9" t="s">
+      <c r="AH35" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI35" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="AJ35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK35" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL35" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM35" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="AN18" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="AO18" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="AP18" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ18" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="AR18" s="9" t="s">
+      <c r="AN35" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="AO35" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="AP35" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ35" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR35" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AS18" s="11" t="s">
+      <c r="AS35" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="AT18" s="9" t="s">
+      <c r="AT35" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AU18" s="9" t="s">
+      <c r="AU35" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AV18" s="9" t="s">
+      <c r="AV35" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="9"/>
-      <c r="BA18" s="9"/>
-      <c r="BB18" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC18" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="BD18" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="BE18" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="BF18" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="BG18" s="9" t="s">
+      <c r="AW35" s="23"/>
+      <c r="AX35" s="23"/>
+      <c r="AY35" s="23"/>
+      <c r="AZ35" s="23"/>
+      <c r="BA35" s="23"/>
+      <c r="BB35" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="BC35" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="BD35" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="BE35" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="BF35" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="BG35" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="BH18" s="9" t="s">
+      <c r="BH35" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="BI18" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:61" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="W19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="X19" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z19" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG19" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH19" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI19" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="AJ19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK19" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM19" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN19" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="AO19" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="AP19" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ19" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="AR19" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS19" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="AT19" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV19" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="9"/>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="9"/>
-      <c r="BA19" s="9"/>
-      <c r="BB19" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="BC19" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="BD19" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="BE19" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF19" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="BG19" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH19" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI19" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:61" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="W20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="X20" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z20" s="9" t="s">
+      <c r="BI35" s="23" t="s">
         <v>273</v>
-      </c>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG20" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH20" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI20" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="AJ20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK20" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL20" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM20" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN20" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="AO20" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="AP20" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS20" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT20" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="9"/>
-      <c r="BA20" s="9"/>
-      <c r="BB20" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="BC20" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="BD20" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="BE20" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="BF20" s="9" t="s">
-        <v>640</v>
-      </c>
-      <c r="BG20" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH20" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI20" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:61" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="S22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T22" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="U22" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="V22" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="W22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z22" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG22" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH22" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI22" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="AJ22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK22" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="AL22" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM22" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN22" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="AO22" s="15" t="s">
-        <v>624</v>
-      </c>
-      <c r="AP22" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ22" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="AR22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS22" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU22" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV22" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW22" s="15"/>
-      <c r="AX22" s="15"/>
-      <c r="AY22" s="15"/>
-      <c r="AZ22" s="15"/>
-      <c r="BA22" s="15"/>
-      <c r="BB22" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="BC22" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="BD22" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="BE22" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF22" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="BG22" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH22" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI22" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:61" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="S23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T23" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="U23" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="V23" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="W23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z23" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC23" s="15"/>
-      <c r="AD23" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE23" s="15"/>
-      <c r="AF23" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG23" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH23" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI23" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK23" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM23" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN23" s="15" t="s">
-        <v>660</v>
-      </c>
-      <c r="AO23" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="AP23" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ23" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="AR23" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS23" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT23" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU23" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV23" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW23" s="15"/>
-      <c r="AX23" s="15"/>
-      <c r="AY23" s="15"/>
-      <c r="AZ23" s="15"/>
-      <c r="BA23" s="15"/>
-      <c r="BB23" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="BC23" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BD23" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="BE23" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="BF23" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="BG23" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH23" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI23" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:61" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>717</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="Q24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="R24" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="S24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T24" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="U24" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="V24" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="W24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="X24" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z24" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG24" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH24" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI24" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="AJ24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK24" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL24" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM24" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN24" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="AO24" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="AP24" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ24" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="AR24" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS24" s="17" t="s">
-        <v>650</v>
-      </c>
-      <c r="AT24" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU24" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV24" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW24" s="15"/>
-      <c r="AX24" s="15"/>
-      <c r="AY24" s="15"/>
-      <c r="AZ24" s="15"/>
-      <c r="BA24" s="15"/>
-      <c r="BB24" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BD24" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="BE24" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="BF24" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI24" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:61" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>702</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>715</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="R25" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="T25" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="U25" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="V25" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="W25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z25" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG25" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH25" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI25" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK25" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL25" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM25" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN25" s="15" t="s">
-        <v>660</v>
-      </c>
-      <c r="AO25" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="AP25" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ25" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR25" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS25" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT25" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU25" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV25" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW25" s="15"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="15"/>
-      <c r="AZ25" s="15"/>
-      <c r="BA25" s="15"/>
-      <c r="BB25" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="BC25" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BD25" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="BE25" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="BF25" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="BG25" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH25" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI25" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:61" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>665</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>673</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>674</v>
-      </c>
-      <c r="O27" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="P27" s="19" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="R27" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="S27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T27" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="U27" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="V27" s="19" t="s">
-        <v>601</v>
-      </c>
-      <c r="W27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="X27" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z27" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG27" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH27" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI27" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="AJ27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK27" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="AL27" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM27" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN27" s="19" t="s">
-        <v>626</v>
-      </c>
-      <c r="AO27" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="AP27" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ27" s="21" t="s">
-        <v>625</v>
-      </c>
-      <c r="AR27" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS27" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT27" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU27" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV27" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="19"/>
-      <c r="AY27" s="19"/>
-      <c r="AZ27" s="19"/>
-      <c r="BA27" s="19"/>
-      <c r="BB27" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="BC27" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="BD27" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE27" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="BF27" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="BG27" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH27" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI27" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:61" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>706</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>664</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>729</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>667</v>
-      </c>
-      <c r="P28" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="R28" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="S28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T28" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="U28" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="V28" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="W28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="X28" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z28" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG28" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH28" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI28" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="AJ28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK28" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL28" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM28" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN28" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="AO28" s="19" t="s">
-        <v>621</v>
-      </c>
-      <c r="AP28" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ28" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="AR28" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS28" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT28" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU28" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV28" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="19"/>
-      <c r="BA28" s="19"/>
-      <c r="BB28" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="BC28" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="BD28" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="BE28" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="BF28" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="BG28" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH28" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI28" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:61" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>664</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>656</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>667</v>
-      </c>
-      <c r="P29" s="19" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q29" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="R29" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="S29" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T29" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="U29" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="V29" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="W29" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="X29" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y29" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z29" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG29" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH29" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI29" s="19" t="s">
-        <v>726</v>
-      </c>
-      <c r="AJ29" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK29" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL29" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM29" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN29" s="19" t="s">
-        <v>616</v>
-      </c>
-      <c r="AO29" s="19" t="s">
-        <v>622</v>
-      </c>
-      <c r="AP29" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ29" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="AR29" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS29" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT29" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU29" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV29" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW29" s="19"/>
-      <c r="AX29" s="19"/>
-      <c r="AY29" s="19"/>
-      <c r="AZ29" s="19"/>
-      <c r="BA29" s="19"/>
-      <c r="BB29" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC29" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="BD29" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="BE29" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="BF29" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="BG29" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH29" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI29" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:61" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>666</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>602</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>595</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>664</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>670</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="N30" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="O30" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="P30" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="Q30" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="R30" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="S30" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T30" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="U30" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="V30" s="19" t="s">
-        <v>671</v>
-      </c>
-      <c r="W30" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="X30" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y30" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z30" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG30" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH30" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI30" s="19" t="s">
-        <v>727</v>
-      </c>
-      <c r="AJ30" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK30" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL30" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM30" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN30" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="AO30" s="19" t="s">
-        <v>623</v>
-      </c>
-      <c r="AP30" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ30" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="AR30" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS30" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT30" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU30" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV30" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW30" s="19"/>
-      <c r="AX30" s="19"/>
-      <c r="AY30" s="19"/>
-      <c r="AZ30" s="19"/>
-      <c r="BA30" s="19"/>
-      <c r="BB30" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="BC30" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="BD30" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="BE30" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="BF30" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="BG30" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH30" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI30" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="32" spans="1:61" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>672</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>677</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>673</v>
-      </c>
-      <c r="M32" s="24" t="s">
-        <v>678</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>674</v>
-      </c>
-      <c r="O32" s="24" t="s">
-        <v>681</v>
-      </c>
-      <c r="P32" s="24" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q32" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="R32" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="S32" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="T32" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="U32" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="V32" s="24" t="s">
-        <v>682</v>
-      </c>
-      <c r="W32" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="X32" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y32" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z32" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG32" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH32" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI32" s="24" t="s">
-        <v>663</v>
-      </c>
-      <c r="AJ32" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK32" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="AL32" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM32" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN32" s="24" t="s">
-        <v>688</v>
-      </c>
-      <c r="AO32" s="24" t="s">
-        <v>624</v>
-      </c>
-      <c r="AP32" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ32" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="AR32" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS32" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT32" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU32" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV32" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW32" s="24"/>
-      <c r="AX32" s="24"/>
-      <c r="AY32" s="24"/>
-      <c r="AZ32" s="24"/>
-      <c r="BA32" s="24"/>
-      <c r="BB32" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="BC32" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="BD32" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="BE32" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF32" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="BG32" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH32" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI32" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:61" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="J33" s="24" t="s">
-        <v>719</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>677</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>720</v>
-      </c>
-      <c r="M33" s="24" t="s">
-        <v>678</v>
-      </c>
-      <c r="N33" s="24" t="s">
-        <v>721</v>
-      </c>
-      <c r="O33" s="24" t="s">
-        <v>681</v>
-      </c>
-      <c r="P33" s="24" t="s">
-        <v>722</v>
-      </c>
-      <c r="Q33" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="R33" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="S33" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="T33" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="U33" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="V33" s="24" t="s">
-        <v>683</v>
-      </c>
-      <c r="W33" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="X33" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y33" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z33" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG33" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH33" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI33" s="24" t="s">
-        <v>686</v>
-      </c>
-      <c r="AJ33" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK33" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL33" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM33" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN33" s="24" t="s">
-        <v>689</v>
-      </c>
-      <c r="AO33" s="24" t="s">
-        <v>621</v>
-      </c>
-      <c r="AP33" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ33" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="AR33" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS33" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT33" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU33" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV33" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW33" s="24"/>
-      <c r="AX33" s="24"/>
-      <c r="AY33" s="24"/>
-      <c r="AZ33" s="24"/>
-      <c r="BA33" s="24"/>
-      <c r="BB33" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="BC33" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="BD33" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="BE33" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="BF33" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="BG33" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH33" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI33" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:61" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>692</v>
-      </c>
-      <c r="K34" s="24" t="s">
-        <v>677</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>693</v>
-      </c>
-      <c r="M34" s="24" t="s">
-        <v>678</v>
-      </c>
-      <c r="N34" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="O34" s="24" t="s">
-        <v>681</v>
-      </c>
-      <c r="P34" s="24" t="s">
-        <v>695</v>
-      </c>
-      <c r="Q34" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="R34" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="S34" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="T34" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="U34" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="V34" s="24" t="s">
-        <v>723</v>
-      </c>
-      <c r="W34" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="X34" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y34" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z34" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA34" s="24"/>
-      <c r="AB34" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG34" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH34" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI34" s="24" t="s">
-        <v>685</v>
-      </c>
-      <c r="AJ34" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK34" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL34" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM34" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN34" s="24" t="s">
-        <v>690</v>
-      </c>
-      <c r="AO34" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="AP34" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ34" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="AR34" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS34" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="AT34" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU34" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV34" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW34" s="24"/>
-      <c r="AX34" s="24"/>
-      <c r="AY34" s="24"/>
-      <c r="AZ34" s="24"/>
-      <c r="BA34" s="24"/>
-      <c r="BB34" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC34" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="BD34" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="BE34" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="BF34" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="BG34" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH34" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI34" s="24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:61" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>595</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>703</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>677</v>
-      </c>
-      <c r="L35" s="24" t="s">
-        <v>704</v>
-      </c>
-      <c r="M35" s="24" t="s">
-        <v>679</v>
-      </c>
-      <c r="N35" s="24" t="s">
-        <v>705</v>
-      </c>
-      <c r="O35" s="24" t="s">
-        <v>680</v>
-      </c>
-      <c r="P35" s="24" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q35" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="R35" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="S35" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="T35" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="U35" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="V35" s="24" t="s">
-        <v>684</v>
-      </c>
-      <c r="W35" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="X35" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y35" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z35" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA35" s="24"/>
-      <c r="AB35" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC35" s="24"/>
-      <c r="AD35" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE35" s="24"/>
-      <c r="AF35" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG35" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="AH35" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI35" s="24" t="s">
-        <v>687</v>
-      </c>
-      <c r="AJ35" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK35" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL35" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM35" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN35" s="24" t="s">
-        <v>689</v>
-      </c>
-      <c r="AO35" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="AP35" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ35" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR35" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS35" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT35" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU35" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV35" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW35" s="24"/>
-      <c r="AX35" s="24"/>
-      <c r="AY35" s="24"/>
-      <c r="AZ35" s="24"/>
-      <c r="BA35" s="24"/>
-      <c r="BB35" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="BC35" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="BD35" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="BE35" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="BF35" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="BG35" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH35" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="BI35" s="24" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
@@ -6760,37 +6800,37 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
         <v>88</v>
@@ -6798,34 +6838,34 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6833,15 +6873,15 @@
         <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6849,45 +6889,45 @@
         <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
@@ -6897,32 +6937,32 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
@@ -6932,32 +6972,32 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -6967,82 +7007,82 @@
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
@@ -7052,1357 +7092,1357 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
@@ -8412,7 +8452,7 @@
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
@@ -8422,12 +8462,12 @@
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
@@ -8442,7 +8482,7 @@
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
@@ -8452,12 +8492,12 @@
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
@@ -8472,7 +8512,7 @@
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
@@ -8482,42 +8522,42 @@
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
@@ -8532,7 +8572,7 @@
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
@@ -8562,47 +8602,47 @@
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
@@ -8612,7 +8652,7 @@
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
@@ -8632,7 +8672,7 @@
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
@@ -8657,7 +8697,7 @@
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.25">
@@ -8682,12 +8722,12 @@
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.25">
@@ -8712,7 +8752,7 @@
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.25">
@@ -8722,27 +8762,27 @@
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.25">
@@ -8757,22 +8797,22 @@
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.25">
@@ -8782,7 +8822,7 @@
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.25">
@@ -8792,12 +8832,12 @@
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
@@ -8807,17 +8847,17 @@
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.25">
@@ -8832,37 +8872,37 @@
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.25">
@@ -8872,122 +8912,122 @@
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B417" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B418" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B419" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B420" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B421" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B422" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B423" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B424" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B426" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B427" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B428" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B429" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B430" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B431" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B432" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.25">
@@ -8997,62 +9037,62 @@
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B451" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.25">
